--- a/output/fit_clients/fit_round_79.xlsx
+++ b/output/fit_clients/fit_round_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7724905073.89547</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004946708647546637</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.979228288282445</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9517073796176865</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.979228288282445</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6771466221.004426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005829197755306072</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.355234764889425</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8898684861516452</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.355234764889425</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6147215459.874002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002618261718287478</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.700587712668949</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9368030406251797</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.700587712668949</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3583514426.366203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003379479095792351</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.501650462400747</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8318011274681157</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.501650462400747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5277136432.549336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002763502432466407</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9336376108195106</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.311167401753535</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.009937003054612</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.311167401753535</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6290608985.077783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008235855772091706</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.410097115383873</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9037509162908808</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.410097115383873</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5725152306.868961</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002609539823623811</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.121059715086092</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9528012566353206</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.121059715086092</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6820108285.626781</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005202596949653378</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.708107250716724</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8878316824809629</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.708107250716724</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3857231856.494761</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004435389369093504</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4860582178679783</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.4774738754554</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7069422883669589</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.4774738754554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4598687298.243503</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001277544132247081</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.326022839192321</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7759649576522172</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.326022839192321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7552113497.003823</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001652696056034023</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6242185938661288</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.74887600224198</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.876358267266803</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.74887600224198</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6221309548.391125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004012405908797055</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.409468197392171</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.021388628508402</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.409468197392171</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6662862274.599373</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00214535814266269</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.939410369173018</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9006134748606914</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.939410369173018</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6903042266.179523</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004435701424394587</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5132272543499701</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.209144819338702</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.7963923705130422</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.209144819338702</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6432935920.60624</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003441048031072285</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.936488919098806</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.909063058160285</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.048342840044361</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.909063058160285</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6069902876.576595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002918365167360028</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.867773490640778</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9405073313466288</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.867773490640778</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5755217559.300905</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008508364965405458</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.900729960200819</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.928499415874077</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.900729960200819</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4355852567.456951</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002369838066623976</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.584180662111073</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.088783959384817</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.584180662111073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4601022451.411933</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.000883880685495111</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.008692057621734</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8301238514337597</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.008692057621734</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8299317779.324599</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004325838455872549</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.822439489529316</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8699470424223721</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.822439489529316</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4037616842.429869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005224481978637816</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.484691198486684</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7864119190609463</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.484691198486684</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8462816061.028068</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001915272931861964</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.208931902918897</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8554911008939123</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.208931902918897</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7595649052.139935</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003741748635575848</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.85037948307356</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9835504242679188</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.85037948307356</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6371821953.706589</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003765414650708435</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9369545439398709</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.131840917122199</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07760645944589</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.131840917122199</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5187572728.472192</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0008890823495977657</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.212535582595521</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8106840768241895</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.212535582595521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8271283098.201915</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003403091924152951</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.602124613844603</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9265010876030972</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.602124613844603</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7074296383.65906</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005369265510340298</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.866864503241163</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9116416977773526</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.866864503241163</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5129529198.744133</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00140438007993604</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.945287102520101</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9785636360949908</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.945287102520101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8574496484.841525</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003629094748327744</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>17</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.376716586671297</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8776425051798701</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.376716586671297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>4964939911.679914</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002185353705911711</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.454187850578512</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9443721351429278</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.454187850578512</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4027582587.954794</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001069820690635738</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.728199651810475</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9082547903342227</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.728199651810475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5650653689.653346</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002764787245405619</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.042625621073582</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8469076739606272</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.042625621073582</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6934973847.592026</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004905209878911071</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.803709665636075</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7489611240755271</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.803709665636075</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5742136426.624017</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002633616914726205</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.650531288414968</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.921205524375298</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.650531288414968</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7577155057.114594</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003043690270366109</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.740024583129793</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.012175259209984</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.740024583129793</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5063860800.051903</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005076916710179086</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.554244526251428</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9917915563033131</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.554244526251428</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4444785501.756907</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003417669155369228</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.496251674538532</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8974171102585212</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.496251674538532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4845326502.685232</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003141480348568317</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.034557681511749</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8609988879048291</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.034557681511749</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6229891893.632675</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00369564828204398</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.696880560583435</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9661662777532281</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.696880560583435</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5674964863.255419</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001448583067307779</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.092490023067319</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9341997279808475</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.092490023067319</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4919321021.664362</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004599265774162292</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.475856093379866</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9684908149524046</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.475856093379866</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6030855072.022161</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004098027946235621</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.697719313502496</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9075901178884563</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.697719313502496</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6908528343.869838</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001527074010291584</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>20</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.565076733889311</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.445406706129173</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.7633547770625457</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.445406706129173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4127516781.601931</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001329640166659323</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.026229789623556</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9551357914796839</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.026229789623556</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7428577132.420727</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004671439892141102</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.603195697774621</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8189628926607255</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.603195697774621</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6291256027.994996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002974412267418602</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.57376711691373</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8930918675935388</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.57376711691373</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6106873959.294741</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002765659348832261</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.260496976093335</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9517299896917886</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.260496976093335</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3868939276.494501</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003886185857358788</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.457368742965441</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8509527824066609</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.457368742965441</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5814720021.449507</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003812537560222241</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.642902926178532</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.019431351995799</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.642902926178532</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5120105879.182594</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005481531480405784</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>19</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.448664890511731</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9356904609418114</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.448664890511731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8630858851.056444</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001691724705108362</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8850812704760016</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.676046724434302</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9535859841603735</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.676046724434302</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5168504221.56769</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002274788416871312</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9856124684965338</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.671660421060129</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.087928926974574</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.671660421060129</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6409395621.85471</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005289293973787489</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.361133958472012</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8381593417353383</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.361133958472012</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7068315817.439292</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004185407684068332</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>17</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.497657536417341</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.898321251839481</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.497657536417341</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5472962810.996223</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002747227569071942</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.613781536303514</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8962796485571012</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.613781536303514</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7493123223.123177</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004212183423749035</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.614101416290914</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8241831863542813</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.614101416290914</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5623506115.034485</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002175064914281301</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.358461901892233</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8261507901784583</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.358461901892233</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5593187808.286065</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003233034102104214</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.618936921893724</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8885111358296296</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.618936921893724</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3886695751.808004</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00426075654346269</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>17</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.384645282607162</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8199535482433871</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.384645282607162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7386580164.067234</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004873796684766221</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>21</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6577174536015381</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.945491422246049</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8558901972881027</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.945491422246049</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4950894041.155597</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002566218620182383</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.159347109558154</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8638228349253366</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.159347109558154</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5500780295.555833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00544648320171534</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.142891181098709</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5395732021758763</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.142891181098709</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3637158933.24919</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004107972573890912</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9381744104055004</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.702876983284816</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.022028034376857</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.702876983284816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4883422619.000562</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005052384719540527</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.957160828203905</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9922115754441594</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.957160828203905</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5290225920.788306</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003101352243704115</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.779716673861964</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9080490853360379</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.779716673861964</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7336304449.371671</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004476524581184355</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.036622701740264</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8823040571293002</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.036622701740264</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6895508826.074633</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002872889020953374</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.247651163032866</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7114979488725485</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.247651163032866</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5818032664.558576</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001260381773994135</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.021418346534704</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.970402678580368</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.021418346534704</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7165624123.504578</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002687623099304721</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.888195487305454</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8974410881192836</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.888195487305454</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3998498246.194906</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003793545813814224</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.793165929880765</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7970103474130174</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.793165929880765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8465402216.241113</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002007300913320718</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.503478986452606</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.034492526731911</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.503478986452606</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7094177210.652369</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001132370225003417</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.929923495734264</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9566388873673646</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.929923495734264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5102549876.850269</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004132292315910343</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8742401355322692</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.592763989909467</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9639947379450143</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.592763989909467</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5740363863.947803</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003196096159665943</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9124528320922352</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.589679947566747</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.9787405714366825</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.589679947566747</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7417461440.909432</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001921472512440762</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.530339937193292</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9127364403997025</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.530339937193292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5700115569.854562</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003963066645908828</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.111113059228549</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9821104282511335</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.111113059228549</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7528815550.462655</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004101555020868622</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.693271834986196</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9200974713433646</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.693271834986196</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8014533857.885602</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002220589269514722</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.763215712043657</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9435349303405166</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.763215712043657</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6793435075.355496</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.00225869733521105</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.678117745679114</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9519036501685512</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.678117745679114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5828489748.129733</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003562963225432773</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.496191635606084</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9848204886932962</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.496191635606084</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7673676949.008309</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004053137256879735</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.460004274405009</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.873671713806864</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.460004274405009</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8970948171.616253</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002452998424746168</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>22</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8843230323045406</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.155684919012869</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9185889251151027</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.155684919012869</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5269436826.16392</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003727268194459869</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.354148996948858</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9378684137083025</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.354148996948858</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5022664247.676311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002831978308267408</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.214229490430935</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8859524926617933</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.214229490430935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5567214007.352365</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.00236295518020653</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>17</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.770198618121138</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9777116913005506</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.770198618121138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4345917544.665004</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00123065647873154</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.165760718119818</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9499545564159535</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.165760718119818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8282918288.654484</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004431640586759056</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.8141819130520909</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.511466231193844</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8876755753047427</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.511466231193844</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7534104954.200706</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003964130126449782</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.05406966982159</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9577046633438637</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.05406966982159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4796651284.004244</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002327167220269346</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>14</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5077283525995987</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.672865164367064</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.7453717955593941</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.672865164367064</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7785631164.482611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003376900349136532</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.815818457802965</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.807443028619201</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.815818457802965</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3396397364.033232</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003702069514543342</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.02214894335884</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.048227782432683</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.02214894335884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5556125453.429927</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001425561094280878</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.595351963306517</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9198710220063665</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.595351963306517</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7406432094.19358</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00105057805522855</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.892810101759814</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.000216115945372</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.892810101759814</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6830441870.797586</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002331192283013519</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.88255004994236</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9229896307342417</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.88255004994236</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9791714176.644032</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003393802638670129</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4108324634233113</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.231519699012707</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.560626594561789</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.231519699012707</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6036286915.072326</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004107460511478894</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.797735918763804</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8839066653356574</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.797735918763804</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6111709545.397766</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00390222537640283</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.473302851139308</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8545668252670173</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.473302851139308</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2796187666.940992</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004237029539772962</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.489743944041282</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8912479136908826</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.489743944041282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4931753063.884889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003052664949324243</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.8922700735117581</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.588417863741306</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.917251338793678</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.588417863741306</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6267738387.632017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001184710674240483</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.7379138139663475</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.791259485838411</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8811226651265649</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.791259485838411</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_79.xlsx
+++ b/output/fit_clients/fit_round_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7724905073.89547</v>
+        <v>2111717348.019312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004946708647546637</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19</v>
+        <v>0.09977091686762803</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03724145321764636</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1055858684.564854</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6771466221.004426</v>
+        <v>1943499104.566413</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005829197755306072</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19</v>
+        <v>0.1466247680922488</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03539298469409887</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>971749583.505083</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6147215459.874002</v>
+        <v>4600319340.964011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002618261718287478</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+        <v>0.1597533163568217</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02866055011335324</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2300159727.101012</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3583514426.366203</v>
+        <v>4071361410.496005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003379479095792351</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1017317490276589</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04437476385439631</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2035680704.116855</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5277136432.549336</v>
+        <v>1899474093.781879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002763502432466407</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1226608988654802</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04640878219946389</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>949737087.2874352</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6290608985.077783</v>
+        <v>2695337252.235655</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008235855772091706</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.09649415676488643</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03067820137079986</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1347668620.240294</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5725152306.868961</v>
+        <v>2929142812.325507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002609539823623811</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1818379691783191</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0288993286122496</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1464571456.340002</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6820108285.626781</v>
+        <v>1644897128.903162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005202596949653378</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1202597071620126</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03501371080239373</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>822448640.2281783</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3857231856.494761</v>
+        <v>4448634295.758034</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004435389369093504</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2126763122406786</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03303284390511953</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2224317204.410095</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4598687298.243503</v>
+        <v>3151909491.387627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001277544132247081</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1781746794364098</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03760240059992107</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1575954699.133891</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7552113497.003823</v>
+        <v>3126491528.137972</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001652696056034023</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.140052732611665</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03398972571896093</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>22</v>
+      <c r="I12" t="n">
+        <v>28</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1563245793.575921</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6221309548.391125</v>
+        <v>4805934725.909379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004012405908797055</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.08845410084834512</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01937689728329781</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2402967376.870409</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3367635682.287244</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.115512816814204</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03830074342358923</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
-        <v>486</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6662862274.599373</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.00214535814266269</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18</v>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1683817848.881255</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6903042266.179523</v>
+        <v>1246598581.276803</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004435701424394587</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.0958716689566539</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04503816869378634</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>623299318.6077758</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6432935920.60624</v>
+        <v>2357554189.064898</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003441048031072285</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>25</v>
+        <v>0.0970618271699222</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04443352176384513</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1178777137.984083</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6069902876.576595</v>
+        <v>3389521413.331039</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002918365167360028</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1390184503518055</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05320863976942831</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1694760771.342971</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5755217559.300905</v>
+        <v>3745865433.30218</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008508364965405458</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>22</v>
+        <v>0.1241870774429018</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03152033646932437</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1872932692.883836</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4355852567.456951</v>
+        <v>992238740.4704193</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002369838066623976</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.162927027692115</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01755262351265722</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>496119397.5104765</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4601022451.411933</v>
+        <v>1985113437.895542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000883880685495111</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1480701161702766</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02866591607560048</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>992556746.7983145</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8299317779.324599</v>
+        <v>2176897531.332294</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004325838455872549</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>0.09923363659220046</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03353730480022182</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1088448784.608614</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4037616842.429869</v>
+        <v>2772524474.752103</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005224481978637816</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1285280800097002</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05582539210522656</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1386262312.445646</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8462816061.028068</v>
+        <v>1524713981.732878</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001915272931861964</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>15</v>
+        <v>0.118362433332018</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0391691148691657</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>762356972.5593162</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7595649052.139935</v>
+        <v>2676638840.845901</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003741748635575848</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.09830948449065519</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02737318805469982</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1338319477.345096</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6371821953.706589</v>
+        <v>1450104108.469788</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003765414650708435</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
+        <v>0.09336030587453552</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02101039558320869</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>725052014.5781151</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5187572728.472192</v>
+        <v>1296747833.039381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008890823495977657</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09140541117405859</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03475366697291572</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>648373961.1919837</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8271283098.201915</v>
+        <v>3441851338.81075</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003403091924152951</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1151780945635309</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02296582198574119</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1720925707.175205</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7074296383.65906</v>
+        <v>2887145958.353929</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005369265510340298</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>20</v>
+        <v>0.1213251415572765</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04689436815533839</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1443572980.517839</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5003037104.962049</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1496186611592324</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04550400456222247</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5129529198.744133</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00140438007993604</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+      <c r="I29" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2501518499.687878</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8574496484.841525</v>
+        <v>1705052210.381916</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003629094748327744</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1378783980379777</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03291049526229017</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>852526108.9748187</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>4964939911.679914</v>
+        <v>1125329414.027345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002185353705911711</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16</v>
+        <v>0.09967661376499573</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03459824991122391</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>562664675.9626455</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4027582587.954794</v>
+        <v>1692192388.859345</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001069820690635738</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07597065329043483</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03413347112868174</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>846096302.4998559</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5650653689.653346</v>
+        <v>2938055681.832186</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002764787245405619</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.1546209834698157</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04880571330480541</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1469027841.722332</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6934973847.592026</v>
+        <v>1435842564.723199</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004905209878911071</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>24</v>
+        <v>0.105379148540298</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01931919501372389</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>717921248.6258494</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5742136426.624017</v>
+        <v>1311727639.502573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002633616914726205</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>20</v>
+        <v>0.1168717412721189</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02865595994955731</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>655863769.8833205</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7577155057.114594</v>
+        <v>2205295741.217021</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003043690270366109</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>22</v>
+        <v>0.1411532568395624</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02344157671726386</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1102647916.122911</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5063860800.051903</v>
+        <v>2858481218.208025</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005076916710179086</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.1012761675517684</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0351548490375764</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1429240754.378513</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4444785501.756907</v>
+        <v>2127371534.831257</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003417669155369228</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1086366566873331</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03038464600133979</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1063685727.964344</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4845326502.685232</v>
+        <v>2115145338.802701</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003141480348568317</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1520921488257548</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03076077079165662</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1057572646.377403</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6229891893.632675</v>
+        <v>1226928766.714245</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00369564828204398</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>25</v>
+        <v>0.135231837850503</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0532894582780002</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>613464417.8076305</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5674964863.255419</v>
+        <v>2213383907.663226</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001448583067307779</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>23</v>
+        <v>0.1214777752655969</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03926925859062926</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1106692007.050219</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4919321021.664362</v>
+        <v>3185605725.436189</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004599265774162292</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1128898537843995</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04485198354536019</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1592802835.844282</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6030855072.022161</v>
+        <v>2608964943.164755</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004098027946235621</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1685815025449584</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02252316628758728</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1304482509.183926</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6908528343.869838</v>
+        <v>1818181935.911214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001527074010291584</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>22</v>
+        <v>0.07783200824472528</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02484355106332659</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>909091037.9286419</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4127516781.601931</v>
+        <v>2114087318.908166</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001329640166659323</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1416893796578268</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0507018032924819</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1057043661.730891</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7428577132.420727</v>
+        <v>4287189972.505537</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004671439892141102</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13</v>
+        <v>0.1077234244382609</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0573126727413354</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2143594972.177218</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6291256027.994996</v>
+        <v>3229838011.628929</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002974412267418602</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.17605430794103</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04004371621947887</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1614918961.215702</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6106873959.294741</v>
+        <v>4733332681.037978</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002765659348832261</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>14</v>
+        <v>0.09613418298437808</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03849382570287085</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2366666332.178265</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3868939276.494501</v>
+        <v>1297284757.559088</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003886185857358788</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1260185332558837</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02885761509860653</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>648642442.2479229</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5814720021.449507</v>
+        <v>3943355314.491961</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003812537560222241</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>21</v>
+        <v>0.1162035410201844</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04180509317318704</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1971677649.862415</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5120105879.182594</v>
+        <v>1497754839.003372</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005481531480405784</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1214230585971793</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04377201893190668</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>748877422.7138231</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8630858851.056444</v>
+        <v>5301988847.821878</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001691724705108362</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>19</v>
+        <v>0.09832191531789422</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05509414211208752</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2650994403.675067</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5168504221.56769</v>
+        <v>3748334877.688779</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002274788416871312</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>15</v>
+        <v>0.1991256332217225</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03333911855206013</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1874167419.528883</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6409395621.85471</v>
+        <v>3844088102.880197</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005289293973787489</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>20</v>
+        <v>0.16783145765492</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04591801486834129</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1922044103.166023</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7068315817.439292</v>
+        <v>4210964519.987033</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004185407684068332</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>25</v>
+        <v>0.1447785857108244</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02476948140327806</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2105482244.130391</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5472962810.996223</v>
+        <v>1281136732.108455</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002747227569071942</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1026518814478577</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05565547203326173</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>640568440.6545302</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7493123223.123177</v>
+        <v>3146831431.41101</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004212183423749035</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>19</v>
+        <v>0.1699068733992333</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02182362974691584</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1573415732.366489</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5623506115.034485</v>
+        <v>1303924786.149091</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002175064914281301</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>18</v>
+        <v>0.1937007723825889</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03340102973640561</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>651962441.9917521</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5593187808.286065</v>
+        <v>3992518572.474472</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003233034102104214</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1160510110525343</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03438071787358929</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1996259262.464094</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3886695751.808004</v>
+        <v>2483028120.731805</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00426075654346269</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1992502637621987</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02955379968983587</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1241514076.414083</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7386580164.067234</v>
+        <v>3191835879.53701</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004873796684766221</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1509512321793896</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02271186371569517</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>18</v>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1595917902.051634</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4950894041.155597</v>
+        <v>1986071924.473844</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002566218620182383</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1211642970713726</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04292410564873218</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>993036018.156383</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5500780295.555833</v>
+        <v>4343051045.89911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00544648320171534</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.06548170184347493</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04048058773106751</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2171525569.941143</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3637158933.24919</v>
+        <v>4687934181.586394</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004107972573890912</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1595733948511207</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03394800969390115</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2343967174.936228</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4883422619.000562</v>
+        <v>4127004195.971964</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005052384719540527</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.1657570947668167</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02578251861770092</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2063502108.889593</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5290225920.788306</v>
+        <v>5162161578.973622</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003101352243704115</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.154036387459015</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03853754954984717</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2581080825.260473</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7336304449.371671</v>
+        <v>3362731860.699952</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004476524581184355</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.08835860061767953</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03879771498806833</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1681365917.799325</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6895508826.074633</v>
+        <v>5318707268.060993</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002872889020953374</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16</v>
+        <v>0.141123625683415</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03263139348018514</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2659353709.64203</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5818032664.558576</v>
+        <v>1970933526.323055</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001260381773994135</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1250393889625692</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05604053396295604</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>985466764.2966012</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7165624123.504578</v>
+        <v>2470064418.407285</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002687623099304721</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>21</v>
+        <v>0.07742614630846188</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04000640730360682</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1235032151.641566</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3998498246.194906</v>
+        <v>5408557197.626166</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003793545813814224</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1286909033352413</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02981998062447572</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2704278734.906612</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8465402216.241113</v>
+        <v>1516027623.211954</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002007300913320718</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>16</v>
+        <v>0.07976885503923214</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04776677664206997</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>758013835.9192256</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7094177210.652369</v>
+        <v>2917081852.4816</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001132370225003417</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.08482872402840012</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03618747963622753</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1458540929.724526</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5102549876.850269</v>
+        <v>3074292739.731682</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004132292315910343</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1473820166243866</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02497235520291756</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1537146428.773773</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5740363863.947803</v>
+        <v>2127523447.196773</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003196096159665943</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.152966613231465</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02577572971124102</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1063761675.78332</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7417461440.909432</v>
+        <v>3881385644.828134</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001921472512440762</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>16</v>
+        <v>0.09667387866171685</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0293024625713304</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1940692802.085932</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5700115569.854562</v>
+        <v>1613568782.29081</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003963066645908828</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1378142118142679</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02399811746540913</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>806784395.5071934</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4636240523.831698</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1356333114778973</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05223323033351814</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>7528815550.462655</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.004101555020868622</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>17</v>
+      <c r="I78" t="n">
+        <v>28</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2318120182.00712</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8014533857.885602</v>
+        <v>1495885470.468406</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002220589269514722</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1727756634286725</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02952920998048167</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>747942768.6559514</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5462219944.003534</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.08209774547481394</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03153174384467113</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6793435075.355496</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.00225869733521105</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+      <c r="I80" t="n">
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2731110044.093498</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5828489748.129733</v>
+        <v>4584193034.635748</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003562963225432773</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.08483755799550202</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03059243388089485</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2292096502.130865</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7673676949.008309</v>
+        <v>4607163175.810624</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004053137256879735</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.212353051697196</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02191514609102924</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>14</v>
+      <c r="I82" t="n">
+        <v>28</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2303581593.638662</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8970948171.616253</v>
+        <v>2307420363.896498</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002452998424746168</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1207531314010312</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03163305524847647</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1153710205.431492</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5269436826.16392</v>
+        <v>2056592435.183915</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003727268194459869</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.09775544075502945</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04923370928577953</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1028296214.215175</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5022664247.676311</v>
+        <v>2988862749.833454</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002831978308267408</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1386524217672516</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04634767440450571</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1494431433.762466</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5567214007.352365</v>
+        <v>2789596017.955452</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00236295518020653</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.112296828820258</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0171062977237215</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1394798146.289425</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4345917544.665004</v>
+        <v>1104404864.02039</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00123065647873154</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1836865750470879</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03269800610973283</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>552202462.9872006</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8282918288.654484</v>
+        <v>3709340371.139776</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004431640586759056</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1752424980338253</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03019942376617239</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1854670285.989342</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>513</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3440246426.222422</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.09696704220158193</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03908351267956114</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>473</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7534104954.200706</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.003964130126449782</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>17</v>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1720123218.860879</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4796651284.004244</v>
+        <v>1674179428.24687</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002327167220269346</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.1272856841270007</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04682208412209121</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>837089724.6730189</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7785631164.482611</v>
+        <v>1590675144.400796</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003376900349136532</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>24</v>
+        <v>0.1888143586977563</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03763081325302628</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>795337598.9469031</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3396397364.033232</v>
+        <v>2090637718.333878</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003702069514543342</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08633723903750737</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03152866722828214</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1045318812.101822</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5556125453.429927</v>
+        <v>4780022318.517098</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001425561094280878</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>26</v>
+        <v>0.1124044758248179</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0443036657748595</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2390011109.377238</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7406432094.19358</v>
+        <v>1950511521.865119</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00105057805522855</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>25</v>
+        <v>0.1122196182983299</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0310556033867527</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>975255752.743703</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6830441870.797586</v>
+        <v>2150489773.465866</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002331192283013519</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>20</v>
+        <v>0.08354520360498437</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0457452722888836</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>18</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1075244948.14214</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9791714176.644032</v>
+        <v>1609481404.888273</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003393802638670129</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>21</v>
+        <v>0.1082458934400698</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03870105438235476</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>804740731.0219303</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6036286915.072326</v>
+        <v>4653382090.140742</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004107460511478894</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1598047122004329</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02209671005946184</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>20</v>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2326691153.885892</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6111709545.397766</v>
+        <v>3473742317.728524</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00390222537640283</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>29</v>
+        <v>0.09115454955868951</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02102045900350167</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1736871175.604846</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2796187666.940992</v>
+        <v>3155989767.638937</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004237029539772962</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1056772131927633</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03131324379060448</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1577994881.004565</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4931753063.884889</v>
+        <v>4202359187.289244</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003052664949324243</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1292961908385775</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02354630234423388</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2101179680.360993</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6267738387.632017</v>
+        <v>2767563143.530743</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001184710674240483</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>25</v>
+        <v>0.1866803709600482</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04585324762066388</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1383781629.999389</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_79.xlsx
+++ b/output/fit_clients/fit_round_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2111717348.019312</v>
+        <v>1563064400.168633</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09977091686762803</v>
+        <v>0.07373175794269318</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03724145321764636</v>
+        <v>0.04175510212102944</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1055858684.564854</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1943499104.566413</v>
+        <v>2370044749.207973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1466247680922488</v>
+        <v>0.1683160395563151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03539298469409887</v>
+        <v>0.03079671054864908</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>971749583.505083</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4600319340.964011</v>
+        <v>5090335272.462214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1597533163568217</v>
+        <v>0.1086117293418154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02866055011335324</v>
+        <v>0.03307833733273676</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2300159727.101012</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4071361410.496005</v>
+        <v>3882259564.671054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1017317490276589</v>
+        <v>0.07734327307037051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04437476385439631</v>
+        <v>0.04903343446600161</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2035680704.116855</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1899474093.781879</v>
+        <v>1927863696.484659</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1226608988654802</v>
+        <v>0.143822615030003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04640878219946389</v>
+        <v>0.04099575024255275</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>949737087.2874352</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2695337252.235655</v>
+        <v>2096518226.06248</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09649415676488643</v>
+        <v>0.06303829989177345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03067820137079986</v>
+        <v>0.04408343419619232</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1347668620.240294</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2929142812.325507</v>
+        <v>2512362582.9484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1818379691783191</v>
+        <v>0.1814379486632855</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0288993286122496</v>
+        <v>0.02970921807952799</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1464571456.340002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1644897128.903162</v>
+        <v>2103425753.609251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1202597071620126</v>
+        <v>0.1523130219830755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03501371080239373</v>
+        <v>0.03171477144195993</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>822448640.2281783</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4448634295.758034</v>
+        <v>4107103488.322834</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2126763122406786</v>
+        <v>0.1307695104713856</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03303284390511953</v>
+        <v>0.05014417142913097</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2224317204.410095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3151909491.387627</v>
+        <v>2753567581.932755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1781746794364098</v>
+        <v>0.1423186126560601</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03760240059992107</v>
+        <v>0.04740940714217519</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>33</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1575954699.133891</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3126491528.137972</v>
+        <v>2446689925.44115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.140052732611665</v>
+        <v>0.1726863193553948</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03398972571896093</v>
+        <v>0.0512461688104748</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1563245793.575921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4805934725.909379</v>
+        <v>3445369920.842731</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08845410084834512</v>
+        <v>0.08137371496091847</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01937689728329781</v>
+        <v>0.03119226490862104</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2402967376.870409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3367635682.287244</v>
+        <v>2829840163.046647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.115512816814204</v>
+        <v>0.1807448520422331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03830074342358923</v>
+        <v>0.02855929584163798</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1683817848.881255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1246598581.276803</v>
+        <v>1652307275.281371</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0958716689566539</v>
+        <v>0.07402359500192107</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04503816869378634</v>
+        <v>0.03149023583930464</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>623299318.6077758</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2357554189.064898</v>
+        <v>2748602248.139915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0970618271699222</v>
+        <v>0.1022506600511869</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04443352176384513</v>
+        <v>0.03997953299852239</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1178777137.984083</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3389521413.331039</v>
+        <v>5232306864.569754</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1390184503518055</v>
+        <v>0.1660301296195965</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05320863976942831</v>
+        <v>0.05010531046492773</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1694760771.342971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3745865433.30218</v>
+        <v>3232655774.89461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241870774429018</v>
+        <v>0.1508787527144068</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03152033646932437</v>
+        <v>0.02575736594727914</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1872932692.883836</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>992238740.4704193</v>
+        <v>1047927060.122445</v>
       </c>
       <c r="F19" t="n">
-        <v>0.162927027692115</v>
+        <v>0.1362485385219567</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01755262351265722</v>
+        <v>0.01963232776561413</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>496119397.5104765</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1985113437.895542</v>
+        <v>2573805167.186381</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1480701161702766</v>
+        <v>0.1331163355167217</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02866591607560048</v>
+        <v>0.02147655874506225</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>992556746.7983145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2176897531.332294</v>
+        <v>2048970703.221936</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09923363659220046</v>
+        <v>0.07146876442216059</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03353730480022182</v>
+        <v>0.03399187978354572</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1088448784.608614</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2772524474.752103</v>
+        <v>2459524771.564157</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1285280800097002</v>
+        <v>0.1132780460824416</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05582539210522656</v>
+        <v>0.04228213080483497</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1386262312.445646</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1524713981.732878</v>
+        <v>1332075812.615638</v>
       </c>
       <c r="F23" t="n">
-        <v>0.118362433332018</v>
+        <v>0.1129116737929823</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0391691148691657</v>
+        <v>0.04375682808781435</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>762356972.5593162</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2676638840.845901</v>
+        <v>3199080274.178177</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09830948449065519</v>
+        <v>0.09739288378436828</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02737318805469982</v>
+        <v>0.02755044931985648</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1338319477.345096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1450104108.469788</v>
+        <v>1349588634.713137</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09336030587453552</v>
+        <v>0.1165273874060377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02101039558320869</v>
+        <v>0.027084826170942</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>725052014.5781151</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1296747833.039381</v>
+        <v>1300070812.227952</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09140541117405859</v>
+        <v>0.1218645298945121</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03475366697291572</v>
+        <v>0.03619184581268408</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>648373961.1919837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3441851338.81075</v>
+        <v>3925110702.894</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1151780945635309</v>
+        <v>0.1542500367380258</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02296582198574119</v>
+        <v>0.01960105413103464</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1720925707.175205</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2887145958.353929</v>
+        <v>2474083162.023386</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1213251415572765</v>
+        <v>0.1337259015615497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04689436815533839</v>
+        <v>0.03058331818364599</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1443572980.517839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5003037104.962049</v>
+        <v>4278436395.714099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1496186611592324</v>
+        <v>0.09858666577013422</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04550400456222247</v>
+        <v>0.04245597313006055</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2501518499.687878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1705052210.381916</v>
+        <v>2383288599.675452</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378783980379777</v>
+        <v>0.0871313740967056</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03291049526229017</v>
+        <v>0.03792145469045759</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>852526108.9748187</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1125329414.027345</v>
+        <v>1022534140.689582</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09967661376499573</v>
+        <v>0.07379494420418292</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03459824991122391</v>
+        <v>0.04601986960345279</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>562664675.9626455</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1692192388.859345</v>
+        <v>1602409543.935993</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07597065329043483</v>
+        <v>0.09578631188172289</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03413347112868174</v>
+        <v>0.03264632522496769</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>846096302.4998559</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2938055681.832186</v>
+        <v>2014083234.736748</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1546209834698157</v>
+        <v>0.2058370560110496</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04880571330480541</v>
+        <v>0.053227537545352</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>22</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1469027841.722332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1435842564.723199</v>
+        <v>1182386330.525675</v>
       </c>
       <c r="F34" t="n">
-        <v>0.105379148540298</v>
+        <v>0.07566932449682956</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01931919501372389</v>
+        <v>0.02844495346872601</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>717921248.6258494</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1311727639.502573</v>
+        <v>1139408438.772776</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1168717412721189</v>
+        <v>0.07232229104752691</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02865595994955731</v>
+        <v>0.030026722767765</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>655863769.8833205</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2205295741.217021</v>
+        <v>2032306372.493837</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1411532568395624</v>
+        <v>0.165090631322566</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02344157671726386</v>
+        <v>0.01886771502213642</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1102647916.122911</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2858481218.208025</v>
+        <v>2223916919.8358</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1012761675517684</v>
+        <v>0.08652067996021406</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0351548490375764</v>
+        <v>0.0307649593387177</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1429240754.378513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2127371534.831257</v>
+        <v>2007991534.982285</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1086366566873331</v>
+        <v>0.1047677418290885</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03038464600133979</v>
+        <v>0.02670982190527955</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1063685727.964344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2115145338.802701</v>
+        <v>1741956392.306406</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1520921488257548</v>
+        <v>0.1642664953066025</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03076077079165662</v>
+        <v>0.02515003987447922</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1057572646.377403</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1226928766.714245</v>
+        <v>1136759841.438708</v>
       </c>
       <c r="F40" t="n">
-        <v>0.135231837850503</v>
+        <v>0.1467046097475587</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0532894582780002</v>
+        <v>0.03882282661636367</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>613464417.8076305</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2213383907.663226</v>
+        <v>2806218288.745506</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1214777752655969</v>
+        <v>0.1533511470813074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03926925859062926</v>
+        <v>0.03710054667019234</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>21</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1106692007.050219</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3185605725.436189</v>
+        <v>4264253956.810664</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1128898537843995</v>
+        <v>0.1102970772310287</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04485198354536019</v>
+        <v>0.03683305583741901</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1592802835.844282</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2608964943.164755</v>
+        <v>2106266350.28271</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685815025449584</v>
+        <v>0.1462747812941626</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02252316628758728</v>
+        <v>0.0163535779587377</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1304482509.183926</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1818181935.911214</v>
+        <v>2054066781.860335</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07783200824472528</v>
+        <v>0.09156574399921137</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02484355106332659</v>
+        <v>0.0339092278195366</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>909091037.9286419</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2114087318.908166</v>
+        <v>2538383976.741667</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1416893796578268</v>
+        <v>0.1351533463835705</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0507018032924819</v>
+        <v>0.04933117243088979</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1057043661.730891</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4287189972.505537</v>
+        <v>5440653445.92205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1077234244382609</v>
+        <v>0.1132247806917788</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0573126727413354</v>
+        <v>0.05778649451655257</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>29</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2143594972.177218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3229838011.628929</v>
+        <v>3914314549.647214</v>
       </c>
       <c r="F47" t="n">
-        <v>0.17605430794103</v>
+        <v>0.1419768562609154</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04004371621947887</v>
+        <v>0.04932144659262674</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>21</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1614918961.215702</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4733332681.037978</v>
+        <v>4367772804.596674</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09613418298437808</v>
+        <v>0.0686334577478158</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03849382570287085</v>
+        <v>0.02389713719391546</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2366666332.178265</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1297284757.559088</v>
+        <v>1819851302.213934</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1260185332558837</v>
+        <v>0.1815530915017646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02885761509860653</v>
+        <v>0.04057672012249703</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>648642442.2479229</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3943355314.491961</v>
+        <v>3791887885.667009</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1162035410201844</v>
+        <v>0.1269625308235319</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04180509317318704</v>
+        <v>0.04212788215269408</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1971677649.862415</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1497754839.003372</v>
+        <v>1439729769.600715</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1214230585971793</v>
+        <v>0.166336993260803</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04377201893190668</v>
+        <v>0.05006394863892014</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>748877422.7138231</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5301988847.821878</v>
+        <v>3830246662.060369</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09832191531789422</v>
+        <v>0.122948706869962</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05509414211208752</v>
+        <v>0.05310877544026985</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>33</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2650994403.675067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3748334877.688779</v>
+        <v>2996769242.140265</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1991256332217225</v>
+        <v>0.1336770580202948</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03333911855206013</v>
+        <v>0.03383099196283309</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>23</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1874167419.528883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3844088102.880197</v>
+        <v>3922835683.791289</v>
       </c>
       <c r="F54" t="n">
-        <v>0.16783145765492</v>
+        <v>0.1573900874545749</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04591801486834129</v>
+        <v>0.04746379160341548</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1922044103.166023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4210964519.987033</v>
+        <v>4457960053.683959</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1447785857108244</v>
+        <v>0.2042366844586178</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02476948140327806</v>
+        <v>0.02670055182007912</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2105482244.130391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1281136732.108455</v>
+        <v>1214271212.300486</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1026518814478577</v>
+        <v>0.1351908825258558</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05565547203326173</v>
+        <v>0.05025383302549909</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>640568440.6545302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3146831431.41101</v>
+        <v>2933379594.96174</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1699068733992333</v>
+        <v>0.1826856948120802</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02182362974691584</v>
+        <v>0.01907497707377616</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>25</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1573415732.366489</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1303924786.149091</v>
+        <v>1158450540.963463</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1937007723825889</v>
+        <v>0.1723299893687267</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03340102973640561</v>
+        <v>0.02960585621389034</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>651962441.9917521</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3992518572.474472</v>
+        <v>3543990593.249925</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160510110525343</v>
+        <v>0.1202705820534225</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03438071787358929</v>
+        <v>0.04958486585403994</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1996259262.464094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2483028120.731805</v>
+        <v>3658821356.563563</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1992502637621987</v>
+        <v>0.2033210739499768</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02955379968983587</v>
+        <v>0.03251914265325123</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1241514076.414083</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3191835879.53701</v>
+        <v>2839232924.429668</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1509512321793896</v>
+        <v>0.1630614951341681</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02271186371569517</v>
+        <v>0.0307822079128196</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1595917902.051634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1986071924.473844</v>
+        <v>1502425495.475681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1211642970713726</v>
+        <v>0.151511168677558</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04292410564873218</v>
+        <v>0.03496209459701285</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>993036018.156383</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4343051045.89911</v>
+        <v>5318525623.513135</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06548170184347493</v>
+        <v>0.06855648043006732</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04048058773106751</v>
+        <v>0.03510414197936685</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>22</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2171525569.941143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4687934181.586394</v>
+        <v>3400075510.353434</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1595733948511207</v>
+        <v>0.1235726198998226</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03394800969390115</v>
+        <v>0.03324394123097131</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>25</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2343967174.936228</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4127004195.971964</v>
+        <v>5760500105.14023</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1657570947668167</v>
+        <v>0.1623721822450904</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02578251861770092</v>
+        <v>0.02581199258349666</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>28</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2063502108.889593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5162161578.973622</v>
+        <v>5349820084.354371</v>
       </c>
       <c r="F66" t="n">
-        <v>0.154036387459015</v>
+        <v>0.1542605411057666</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03853754954984717</v>
+        <v>0.0479861679864205</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>23</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2581080825.260473</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3362731860.699952</v>
+        <v>3009643858.778654</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08835860061767953</v>
+        <v>0.07090947630728556</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03879771498806833</v>
+        <v>0.04373899739094671</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1681365917.799325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5318707268.060993</v>
+        <v>4336874880.914168</v>
       </c>
       <c r="F68" t="n">
-        <v>0.141123625683415</v>
+        <v>0.1323823497408302</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03263139348018514</v>
+        <v>0.04851997413615394</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>25</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2659353709.64203</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1970933526.323055</v>
+        <v>1828024163.204483</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1250393889625692</v>
+        <v>0.1818371435007882</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05604053396295604</v>
+        <v>0.05511148582403864</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>985466764.2966012</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2470064418.407285</v>
+        <v>3483707061.666355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07742614630846188</v>
+        <v>0.0861341946370234</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04000640730360682</v>
+        <v>0.03597037717050791</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1235032151.641566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5408557197.626166</v>
+        <v>3719733071.544503</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1286909033352413</v>
+        <v>0.1223381989663915</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02981998062447572</v>
+        <v>0.02070497035650585</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2704278734.906612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1516027623.211954</v>
+        <v>2277046073.263778</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07976885503923214</v>
+        <v>0.08237514257204084</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04776677664206997</v>
+        <v>0.03283953516632508</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>758013835.9192256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2917081852.4816</v>
+        <v>2473676368.953104</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08482872402840012</v>
+        <v>0.105717336935951</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03618747963622753</v>
+        <v>0.03621914801030642</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>31</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1458540929.724526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3074292739.731682</v>
+        <v>3198321027.512445</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1473820166243866</v>
+        <v>0.152406826494994</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02497235520291756</v>
+        <v>0.0335982482528561</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>27</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1537146428.773773</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2127523447.196773</v>
+        <v>2300834164.555853</v>
       </c>
       <c r="F75" t="n">
-        <v>0.152966613231465</v>
+        <v>0.1044898987113943</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02577572971124102</v>
+        <v>0.03672024674010605</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1063761675.78332</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3881385644.828134</v>
+        <v>3731373609.34389</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09667387866171685</v>
+        <v>0.0906180084364928</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0293024625713304</v>
+        <v>0.03097002849767102</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1940692802.085932</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1613568782.29081</v>
+        <v>2191240814.511801</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1378142118142679</v>
+        <v>0.1626192289069486</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02399811746540913</v>
+        <v>0.02109238100689055</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>806784395.5071934</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4636240523.831698</v>
+        <v>3399741425.082234</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1356333114778973</v>
+        <v>0.123168237639305</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05223323033351814</v>
+        <v>0.05376802863273692</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>28</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2318120182.00712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1495885470.468406</v>
+        <v>1509868758.923169</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1727756634286725</v>
+        <v>0.1138408820901011</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02952920998048167</v>
+        <v>0.0355827962510667</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>747942768.6559514</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5462219944.003534</v>
+        <v>3398414981.898647</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08209774547481394</v>
+        <v>0.0733636000345195</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03153174384467113</v>
+        <v>0.0362178193610818</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2731110044.093498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4584193034.635748</v>
+        <v>3420261923.992249</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08483755799550202</v>
+        <v>0.1355706494989861</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03059243388089485</v>
+        <v>0.02417741070071238</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2292096502.130865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4607163175.810624</v>
+        <v>4964244235.580885</v>
       </c>
       <c r="F82" t="n">
-        <v>0.212353051697196</v>
+        <v>0.16789232428043</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02191514609102924</v>
+        <v>0.01879637934542757</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>28</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2303581593.638662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2307420363.896498</v>
+        <v>1661901035.312165</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207531314010312</v>
+        <v>0.1540858322565352</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03163305524847647</v>
+        <v>0.04294876711103481</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1153710205.431492</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2056592435.183915</v>
+        <v>2222852924.716465</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09775544075502945</v>
+        <v>0.1003748748168487</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04923370928577953</v>
+        <v>0.04956479287310798</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1028296214.215175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2988862749.833454</v>
+        <v>3519149319.11243</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1386524217672516</v>
+        <v>0.1530391267813056</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04634767440450571</v>
+        <v>0.05200337726055525</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1494431433.762466</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2789596017.955452</v>
+        <v>1710317547.298609</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112296828820258</v>
+        <v>0.1314845887661845</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0171062977237215</v>
+        <v>0.02345858780097996</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1394798146.289425</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1104404864.02039</v>
+        <v>910168041.9028535</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1836865750470879</v>
+        <v>0.1317897088176563</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03269800610973283</v>
+        <v>0.03034919024315616</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>552202462.9872006</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3709340371.139776</v>
+        <v>2841520312.85169</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1752424980338253</v>
+        <v>0.1566033958770506</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03019942376617239</v>
+        <v>0.03871951923863392</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>30</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1854670285.989342</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3440246426.222422</v>
+        <v>2171122018.072013</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09696704220158193</v>
+        <v>0.104188601976923</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03908351267956114</v>
+        <v>0.03316033223440479</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1720123218.860879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1674179428.24687</v>
+        <v>1793596826.004053</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1272856841270007</v>
+        <v>0.1039925714449494</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04682208412209121</v>
+        <v>0.04000550391126574</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>837089724.6730189</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1590675144.400796</v>
+        <v>1661983392.686401</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1888143586977563</v>
+        <v>0.1932259499293882</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03763081325302628</v>
+        <v>0.04229590218510985</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>795337598.9469031</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2090637718.333878</v>
+        <v>2346059070.810161</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08633723903750737</v>
+        <v>0.1053630590381019</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03152866722828214</v>
+        <v>0.04298111437852916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1045318812.101822</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4780022318.517098</v>
+        <v>3146488111.937301</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1124044758248179</v>
+        <v>0.09767983716441186</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0443036657748595</v>
+        <v>0.04815318198807419</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>23</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2390011109.377238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1950511521.865119</v>
+        <v>1817372756.551931</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1122196182983299</v>
+        <v>0.1479845106632179</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0310556033867527</v>
+        <v>0.03757573540076608</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>975255752.743703</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2150489773.465866</v>
+        <v>3089199317.198449</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08354520360498437</v>
+        <v>0.0936916573813515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0457452722888836</v>
+        <v>0.03738725510573759</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>18</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1075244948.14214</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1609481404.888273</v>
+        <v>1636172970.646301</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1082458934400698</v>
+        <v>0.1370315556255669</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03870105438235476</v>
+        <v>0.04171675859393718</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>804740731.0219303</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4653382090.140742</v>
+        <v>5232084753.756645</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1598047122004329</v>
+        <v>0.1104624121820511</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02209671005946184</v>
+        <v>0.02466075997897558</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2326691153.885892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3473742317.728524</v>
+        <v>2412982123.939223</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09115454955868951</v>
+        <v>0.1140709436383566</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02102045900350167</v>
+        <v>0.03051383832771212</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>21</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1736871175.604846</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3155989767.638937</v>
+        <v>3025570095.874403</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1056772131927633</v>
+        <v>0.108317538020047</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03131324379060448</v>
+        <v>0.02611155576562051</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1577994881.004565</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4202359187.289244</v>
+        <v>4788696944.773802</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1292961908385775</v>
+        <v>0.1584027877512761</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02354630234423388</v>
+        <v>0.02675588566879182</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2101179680.360993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2767563143.530743</v>
+        <v>3454347519.385171</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1866803709600482</v>
+        <v>0.1731142435120616</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04585324762066388</v>
+        <v>0.04499793117161825</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1383781629.999389</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_79.xlsx
+++ b/output/fit_clients/fit_round_79.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1563064400.168633</v>
+        <v>2046091258.941778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07373175794269318</v>
+        <v>0.08783653547261616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04175510212102944</v>
+        <v>0.03633168119524273</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2370044749.207973</v>
+        <v>2247368508.106816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1683160395563151</v>
+        <v>0.1507119240742262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03079671054864908</v>
+        <v>0.03437925316422102</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5090335272.462214</v>
+        <v>3824300252.82742</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1086117293418154</v>
+        <v>0.160169311242684</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03307833733273676</v>
+        <v>0.03316670491480436</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3882259564.671054</v>
+        <v>3398696209.69944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07734327307037051</v>
+        <v>0.09630426346801722</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04903343446600161</v>
+        <v>0.03625634007147108</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1927863696.484659</v>
+        <v>1770269282.959832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.143822615030003</v>
+        <v>0.1428837162157879</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04099575024255275</v>
+        <v>0.03870153965116274</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2096518226.06248</v>
+        <v>2292629347.407347</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06303829989177345</v>
+        <v>0.09573278654403457</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04408343419619232</v>
+        <v>0.0451043388146111</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2512362582.9484</v>
+        <v>3343124879.401907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1814379486632855</v>
+        <v>0.2056694335783729</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02970921807952799</v>
+        <v>0.02929064966672137</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2103425753.609251</v>
+        <v>1877194909.291695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1523130219830755</v>
+        <v>0.1987072399752211</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03171477144195993</v>
+        <v>0.03618064661470546</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4107103488.322834</v>
+        <v>5137007882.606453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1307695104713856</v>
+        <v>0.1755937653209517</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05014417142913097</v>
+        <v>0.04670261726648361</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2753567581.932755</v>
+        <v>4109120737.003677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1423186126560601</v>
+        <v>0.1650585465675839</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04740940714217519</v>
+        <v>0.04905405870085529</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2446689925.44115</v>
+        <v>3186742552.835186</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1726863193553948</v>
+        <v>0.1617981990212544</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0512461688104748</v>
+        <v>0.03506683666927575</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3445369920.842731</v>
+        <v>3304364570.522396</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08137371496091847</v>
+        <v>0.06579630090630008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03119226490862104</v>
+        <v>0.03101533067206168</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2829840163.046647</v>
+        <v>2774340093.351929</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1807448520422331</v>
+        <v>0.1519457683108826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02855929584163798</v>
+        <v>0.0336306320414408</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1652307275.281371</v>
+        <v>1292165555.111492</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07402359500192107</v>
+        <v>0.07046449242908502</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03149023583930464</v>
+        <v>0.03068809647037426</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2748602248.139915</v>
+        <v>2730564786.261065</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1022506600511869</v>
+        <v>0.08817502510633836</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03997953299852239</v>
+        <v>0.03405032985380676</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5232306864.569754</v>
+        <v>3248492275.577755</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1660301296195965</v>
+        <v>0.1219498709142212</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05010531046492773</v>
+        <v>0.03819308405157783</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3232655774.89461</v>
+        <v>3124462515.314547</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1508787527144068</v>
+        <v>0.1425358447746934</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02575736594727914</v>
+        <v>0.03347020234857871</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1047927060.122445</v>
+        <v>832947454.423575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1362485385219567</v>
+        <v>0.1248707011256623</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01963232776561413</v>
+        <v>0.02284154682177568</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2573805167.186381</v>
+        <v>2087715804.390755</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1331163355167217</v>
+        <v>0.0995299233696693</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02147655874506225</v>
+        <v>0.02410503445992009</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2048970703.221936</v>
+        <v>2256975419.918972</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07146876442216059</v>
+        <v>0.06524556091376442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03399187978354572</v>
+        <v>0.03538463344103418</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2459524771.564157</v>
+        <v>3141231795.700283</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1132780460824416</v>
+        <v>0.1428419721856833</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04228213080483497</v>
+        <v>0.03875606336078526</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1332075812.615638</v>
+        <v>1158601945.200272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1129116737929823</v>
+        <v>0.1249104711005859</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04375682808781435</v>
+        <v>0.05039308983394921</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3199080274.178177</v>
+        <v>3573161082.715459</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09739288378436828</v>
+        <v>0.09819013686748795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02755044931985648</v>
+        <v>0.02611644235507945</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1349588634.713137</v>
+        <v>1434018266.620961</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1165273874060377</v>
+        <v>0.09678668545060416</v>
       </c>
       <c r="G25" t="n">
-        <v>0.027084826170942</v>
+        <v>0.02600083613928515</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1300070812.227952</v>
+        <v>1248498431.07141</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1218645298945121</v>
+        <v>0.08207783669216723</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03619184581268408</v>
+        <v>0.03578348999709104</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3925110702.894</v>
+        <v>2853911322.484876</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1542500367380258</v>
+        <v>0.1492792100617314</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01960105413103464</v>
+        <v>0.01757352681534664</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2474083162.023386</v>
+        <v>3087373696.331055</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1337259015615497</v>
+        <v>0.09730305332467916</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03058331818364599</v>
+        <v>0.04847963699583482</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4278436395.714099</v>
+        <v>4893527284.285681</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09858666577013422</v>
+        <v>0.1004282523306759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04245597313006055</v>
+        <v>0.03599317761086554</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2383288599.675452</v>
+        <v>1590681442.288275</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0871313740967056</v>
+        <v>0.09631036809354031</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03792145469045759</v>
+        <v>0.02611963753788851</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022534140.689582</v>
+        <v>1158228045.313512</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07379494420418292</v>
+        <v>0.09532537619204667</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04601986960345279</v>
+        <v>0.0467393705079034</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1602409543.935993</v>
+        <v>1834497075.884566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09578631188172289</v>
+        <v>0.120374201157929</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03264632522496769</v>
+        <v>0.02812559114094836</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2014083234.736748</v>
+        <v>2795981500.973396</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2058370560110496</v>
+        <v>0.1822152654293358</v>
       </c>
       <c r="G33" t="n">
-        <v>0.053227537545352</v>
+        <v>0.03811023897656918</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1182386330.525675</v>
+        <v>1234691584.568253</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07566932449682956</v>
+        <v>0.1184224001703916</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02844495346872601</v>
+        <v>0.01984549515772423</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1139408438.772776</v>
+        <v>919621067.8140559</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07232229104752691</v>
+        <v>0.1092980281633948</v>
       </c>
       <c r="G35" t="n">
-        <v>0.030026722767765</v>
+        <v>0.03479154162029272</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2032306372.493837</v>
+        <v>3050169862.810856</v>
       </c>
       <c r="F36" t="n">
-        <v>0.165090631322566</v>
+        <v>0.1312316284726364</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01886771502213642</v>
+        <v>0.02098371211465404</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2223916919.8358</v>
+        <v>2687208725.127342</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08652067996021406</v>
+        <v>0.06808139494218633</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0307649593387177</v>
+        <v>0.03737412530881453</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2007991534.982285</v>
+        <v>1685878319.361519</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1047677418290885</v>
+        <v>0.1187295905113947</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02670982190527955</v>
+        <v>0.02531473105259276</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1741956392.306406</v>
+        <v>1711440911.060876</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1642664953066025</v>
+        <v>0.1559441503292974</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02515003987447922</v>
+        <v>0.02832503995925408</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1136759841.438708</v>
+        <v>1389919927.494277</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1467046097475587</v>
+        <v>0.1398032005843277</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03882282661636367</v>
+        <v>0.03915639476751256</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2806218288.745506</v>
+        <v>2170029394.182347</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1533511470813074</v>
+        <v>0.104432580440585</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03710054667019234</v>
+        <v>0.04195044717369931</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4264253956.810664</v>
+        <v>3737813514.673876</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1102970772310287</v>
+        <v>0.1059421461695269</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03683305583741901</v>
+        <v>0.03441135923802052</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2106266350.28271</v>
+        <v>2908518501.669742</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1462747812941626</v>
+        <v>0.13976152195918</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0163535779587377</v>
+        <v>0.02124332757177839</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2054066781.860335</v>
+        <v>1942285482.592248</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09156574399921137</v>
+        <v>0.08386543751586387</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0339092278195366</v>
+        <v>0.02859524960401948</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2538383976.741667</v>
+        <v>1800632784.468719</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1351533463835705</v>
+        <v>0.1519480156558458</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04933117243088979</v>
+        <v>0.03498181606841887</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5440653445.92205</v>
+        <v>5102560821.241166</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1132247806917788</v>
+        <v>0.1532770939328826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05778649451655257</v>
+        <v>0.05723866012898809</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3914314549.647214</v>
+        <v>4151578810.795019</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1419768562609154</v>
+        <v>0.1982815495384656</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04932144659262674</v>
+        <v>0.0468289783624594</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4367772804.596674</v>
+        <v>3022929940.168417</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0686334577478158</v>
+        <v>0.08522000170877155</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02389713719391546</v>
+        <v>0.03312180702245554</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1819851302.213934</v>
+        <v>1774664908.524992</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1815530915017646</v>
+        <v>0.1401652868728476</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04057672012249703</v>
+        <v>0.04284301151043388</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3791887885.667009</v>
+        <v>3299878947.369439</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1269625308235319</v>
+        <v>0.1339551399848131</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04212788215269408</v>
+        <v>0.05001870729280734</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1439729769.600715</v>
+        <v>1049220553.91587</v>
       </c>
       <c r="F51" t="n">
-        <v>0.166336993260803</v>
+        <v>0.1638331792580353</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05006394863892014</v>
+        <v>0.05394242895008027</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3830246662.060369</v>
+        <v>3895250787.106676</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122948706869962</v>
+        <v>0.0974859277814725</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05310877544026985</v>
+        <v>0.0407640079156731</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2996769242.140265</v>
+        <v>2393296258.009686</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1336770580202948</v>
+        <v>0.1696737764709801</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03383099196283309</v>
+        <v>0.03558953545807526</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3922835683.791289</v>
+        <v>3774934202.578844</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1573900874545749</v>
+        <v>0.1164089029632628</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04746379160341548</v>
+        <v>0.04590073712341521</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4457960053.683959</v>
+        <v>4587810704.664742</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2042366844586178</v>
+        <v>0.1503542909101235</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02670055182007912</v>
+        <v>0.02232335270421158</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1214271212.300486</v>
+        <v>1564950632.990927</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1351908825258558</v>
+        <v>0.132330185163842</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05025383302549909</v>
+        <v>0.04292456314936857</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2933379594.96174</v>
+        <v>4103467360.040862</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1826856948120802</v>
+        <v>0.1174938384662684</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01907497707377616</v>
+        <v>0.01981295086616913</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1158450540.963463</v>
+        <v>1217354191.780883</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1723299893687267</v>
+        <v>0.1938427567100336</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02960585621389034</v>
+        <v>0.03049550486703994</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3543990593.249925</v>
+        <v>5289866741.841043</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1202705820534225</v>
+        <v>0.09032161576113344</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04958486585403994</v>
+        <v>0.03860230811002376</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3658821356.563563</v>
+        <v>3552891547.452807</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2033210739499768</v>
+        <v>0.1435105727826423</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03251914265325123</v>
+        <v>0.0254377565174587</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2839232924.429668</v>
+        <v>2890637757.763421</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1630614951341681</v>
+        <v>0.1752067588910351</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0307822079128196</v>
+        <v>0.02028144300201573</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1502425495.475681</v>
+        <v>1614939795.913466</v>
       </c>
       <c r="F62" t="n">
-        <v>0.151511168677558</v>
+        <v>0.1509291184062511</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03496209459701285</v>
+        <v>0.03011245215380097</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5318525623.513135</v>
+        <v>4122228109.386533</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06855648043006732</v>
+        <v>0.07195480882589207</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03510414197936685</v>
+        <v>0.03051059228418791</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3400075510.353434</v>
+        <v>5106220986.386503</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1235726198998226</v>
+        <v>0.1210615637556765</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03324394123097131</v>
+        <v>0.02471618233060181</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5760500105.14023</v>
+        <v>5680921206.295308</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1623721822450904</v>
+        <v>0.143093372768605</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02581199258349666</v>
+        <v>0.0301380808701866</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5349820084.354371</v>
+        <v>5180786459.799029</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1542605411057666</v>
+        <v>0.1078462483097702</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0479861679864205</v>
+        <v>0.03984125952924288</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3009643858.778654</v>
+        <v>2861203807.520786</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07090947630728556</v>
+        <v>0.06927398593603866</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04373899739094671</v>
+        <v>0.04830301710930049</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4336874880.914168</v>
+        <v>5020854289.206693</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1323823497408302</v>
+        <v>0.1282833741398421</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04851997413615394</v>
+        <v>0.04235879825016103</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1828024163.204483</v>
+        <v>2272102874.717769</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1818371435007882</v>
+        <v>0.1338031899904552</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05511148582403864</v>
+        <v>0.05517727841499154</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3483707061.666355</v>
+        <v>2371244163.515525</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0861341946370234</v>
+        <v>0.08412095177036945</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03597037717050791</v>
+        <v>0.04094055939590988</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3719733071.544503</v>
+        <v>5069741013.773411</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1223381989663915</v>
+        <v>0.1579854710504828</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02070497035650585</v>
+        <v>0.03314414241761655</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2277046073.263778</v>
+        <v>1656323329.543107</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08237514257204084</v>
+        <v>0.07320871123380204</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03283953516632508</v>
+        <v>0.0367551106362433</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2473676368.953104</v>
+        <v>2576326957.199794</v>
       </c>
       <c r="F73" t="n">
-        <v>0.105717336935951</v>
+        <v>0.1091959789757101</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03621914801030642</v>
+        <v>0.05102630044527312</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3198321027.512445</v>
+        <v>3072919656.042213</v>
       </c>
       <c r="F74" t="n">
-        <v>0.152406826494994</v>
+        <v>0.1222264695343487</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0335982482528561</v>
+        <v>0.02398944347113583</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2300834164.555853</v>
+        <v>2176674977.182805</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1044898987113943</v>
+        <v>0.1374144294574118</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03672024674010605</v>
+        <v>0.0270570218105959</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3731373609.34389</v>
+        <v>3639866319.323354</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0906180084364928</v>
+        <v>0.1013445015398753</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03097002849767102</v>
+        <v>0.02662012165657608</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2191240814.511801</v>
+        <v>1836548225.85468</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1626192289069486</v>
+        <v>0.1133178731472967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02109238100689055</v>
+        <v>0.03165437986669589</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3399741425.082234</v>
+        <v>4180774787.711661</v>
       </c>
       <c r="F78" t="n">
-        <v>0.123168237639305</v>
+        <v>0.1142558897104704</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05376802863273692</v>
+        <v>0.03748811653541066</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1509868758.923169</v>
+        <v>1853157738.254213</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1138408820901011</v>
+        <v>0.1179043535609065</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0355827962510667</v>
+        <v>0.02508615335213574</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3398414981.898647</v>
+        <v>3705039204.052663</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0733636000345195</v>
+        <v>0.07601164027744868</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0362178193610818</v>
+        <v>0.03236827820501383</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3420261923.992249</v>
+        <v>3174154443.335542</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1355706494989861</v>
+        <v>0.1246485845714392</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02417741070071238</v>
+        <v>0.02768373822623789</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4964244235.580885</v>
+        <v>4374575449.548407</v>
       </c>
       <c r="F82" t="n">
-        <v>0.16789232428043</v>
+        <v>0.2027768745601379</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01879637934542757</v>
+        <v>0.01946810978363882</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1661901035.312165</v>
+        <v>1920055028.166513</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1540858322565352</v>
+        <v>0.09532154388593357</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04294876711103481</v>
+        <v>0.03096909260316158</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2222852924.716465</v>
+        <v>1956579250.343742</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1003748748168487</v>
+        <v>0.1198423815153098</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04956479287310798</v>
+        <v>0.04923312440125877</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3519149319.11243</v>
+        <v>3302549714.894655</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1530391267813056</v>
+        <v>0.1387295994420695</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05200337726055525</v>
+        <v>0.04310126275104862</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1710317547.298609</v>
+        <v>2211185807.173006</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1314845887661845</v>
+        <v>0.1170392000776846</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02345858780097996</v>
+        <v>0.02258516521134015</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>910168041.9028535</v>
+        <v>1195285826.372596</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1317897088176563</v>
+        <v>0.1538984403478054</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03034919024315616</v>
+        <v>0.03433517028354759</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2841520312.85169</v>
+        <v>3522728228.493164</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1566033958770506</v>
+        <v>0.1761045038650854</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03871951923863392</v>
+        <v>0.03953175224221302</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2171122018.072013</v>
+        <v>2160424127.703148</v>
       </c>
       <c r="F89" t="n">
-        <v>0.104188601976923</v>
+        <v>0.1148081291106883</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03316033223440479</v>
+        <v>0.03929264943384138</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1793596826.004053</v>
+        <v>1732857363.308109</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1039925714449494</v>
+        <v>0.1293883850260536</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04000550391126574</v>
+        <v>0.044402425459</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1661983392.686401</v>
+        <v>2031386386.663965</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1932259499293882</v>
+        <v>0.1615790525085059</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04229590218510985</v>
+        <v>0.03989051857052823</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2346059070.810161</v>
+        <v>2179728351.278243</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1053630590381019</v>
+        <v>0.06986258295837604</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04298111437852916</v>
+        <v>0.04572756820024335</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3146488111.937301</v>
+        <v>4484420468.968056</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09767983716441186</v>
+        <v>0.113371930428853</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04815318198807419</v>
+        <v>0.03962280059652126</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1817372756.551931</v>
+        <v>2038674593.879852</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1479845106632179</v>
+        <v>0.1390227955027847</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03757573540076608</v>
+        <v>0.0314098280664452</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3089199317.198449</v>
+        <v>2757439604.813295</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0936916573813515</v>
+        <v>0.08427834356399631</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03738725510573759</v>
+        <v>0.04159766642665483</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1636172970.646301</v>
+        <v>2116700121.852173</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1370315556255669</v>
+        <v>0.0947604435568429</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04171675859393718</v>
+        <v>0.04083172281441404</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5232084753.756645</v>
+        <v>5248044731.101466</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1104624121820511</v>
+        <v>0.1297745070068562</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02466075997897558</v>
+        <v>0.01890019385801599</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2412982123.939223</v>
+        <v>2920950271.61369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1140709436383566</v>
+        <v>0.1090227707483489</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03051383832771212</v>
+        <v>0.02975252063307194</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3025570095.874403</v>
+        <v>2760698167.867778</v>
       </c>
       <c r="F99" t="n">
-        <v>0.108317538020047</v>
+        <v>0.09947115204154346</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02611155576562051</v>
+        <v>0.02152467248496015</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4788696944.773802</v>
+        <v>4289051513.884157</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1584027877512761</v>
+        <v>0.1583279123525461</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02675588566879182</v>
+        <v>0.01732308478419291</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3454347519.385171</v>
+        <v>2217051421.213785</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1731142435120616</v>
+        <v>0.1882401498360212</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04499793117161825</v>
+        <v>0.04454323064748197</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_79.xlsx
+++ b/output/fit_clients/fit_round_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2046091258.941778</v>
+        <v>2173299646.109305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08783653547261616</v>
+        <v>0.08029630527071022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03633168119524273</v>
+        <v>0.04090918980987623</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2247368508.106816</v>
+        <v>2136061005.050408</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1507119240742262</v>
+        <v>0.1462344785544783</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03437925316422102</v>
+        <v>0.0448761691581912</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3824300252.82742</v>
+        <v>4581774239.667457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.160169311242684</v>
+        <v>0.1043377503351768</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03316670491480436</v>
+        <v>0.02554544258904382</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3398696209.69944</v>
+        <v>3058030233.456851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09630426346801722</v>
+        <v>0.08865719177434331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03625634007147108</v>
+        <v>0.04824293369769811</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1770269282.959832</v>
+        <v>2578473633.564941</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1428837162157879</v>
+        <v>0.09087508173702112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03870153965116274</v>
+        <v>0.04641517627387647</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2292629347.407347</v>
+        <v>2415847545.403712</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09573278654403457</v>
+        <v>0.1006288263815881</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0451043388146111</v>
+        <v>0.03421765413455741</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3343124879.401907</v>
+        <v>3938899599.223878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2056694335783729</v>
+        <v>0.2121666466917045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02929064966672137</v>
+        <v>0.03183994487846206</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1877194909.291695</v>
+        <v>1450110957.414512</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1987072399752211</v>
+        <v>0.1567087993740054</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03618064661470546</v>
+        <v>0.03332731956971694</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5137007882.606453</v>
+        <v>3803358051.997531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1755937653209517</v>
+        <v>0.1543594386796349</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04670261726648361</v>
+        <v>0.04070831189691484</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>73</v>
+      </c>
+      <c r="J10" t="n">
+        <v>79</v>
+      </c>
+      <c r="K10" t="n">
+        <v>199.7279500566123</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4109120737.003677</v>
+        <v>2594460478.16541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1650585465675839</v>
+        <v>0.182908445628981</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04905405870085529</v>
+        <v>0.03500998527255429</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>76</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3186742552.835186</v>
+        <v>2575781297.028619</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1617981990212544</v>
+        <v>0.12171009067852</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03506683666927575</v>
+        <v>0.05368819053735838</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3304364570.522396</v>
+        <v>3379165423.526305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06579630090630008</v>
+        <v>0.09474821329244362</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03101533067206168</v>
+        <v>0.02489609438577087</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="n">
+        <v>79</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2774340093.351929</v>
+        <v>3830120564.624313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1519457683108826</v>
+        <v>0.1587191792927563</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0336306320414408</v>
+        <v>0.03380366455231802</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1292165555.111492</v>
+        <v>1504359009.194753</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07046449242908502</v>
+        <v>0.08867242405162865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03068809647037426</v>
+        <v>0.03496642912867735</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2730564786.261065</v>
+        <v>2167263753.80584</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08817502510633836</v>
+        <v>0.07330146115012397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03405032985380676</v>
+        <v>0.03155321140756603</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3248492275.577755</v>
+        <v>5275279589.944206</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1219498709142212</v>
+        <v>0.1104996236020052</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03819308405157783</v>
+        <v>0.04761923185526276</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>38</v>
+      </c>
+      <c r="J17" t="n">
+        <v>78</v>
+      </c>
+      <c r="K17" t="n">
+        <v>159.0710131513982</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1065,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3124462515.314547</v>
+        <v>2969842472.402058</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1425358447746934</v>
+        <v>0.1782880785302011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03347020234857871</v>
+        <v>0.02721535171169463</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>78</v>
+      </c>
+      <c r="K18" t="n">
+        <v>105.7106237884563</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>832947454.423575</v>
+        <v>1117298150.012164</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1248707011256623</v>
+        <v>0.1846037990539157</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02284154682177568</v>
+        <v>0.01908471476879667</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2087715804.390755</v>
+        <v>2199124056.706462</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0995299233696693</v>
+        <v>0.1296898277745752</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02410503445992009</v>
+        <v>0.02263198324887372</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2256975419.918972</v>
+        <v>2587254968.069447</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06524556091376442</v>
+        <v>0.0887464796207162</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03538463344103418</v>
+        <v>0.03836162603318074</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3141231795.700283</v>
+        <v>3189713614.629457</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1428419721856833</v>
+        <v>0.1037749032250208</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03875606336078526</v>
+        <v>0.0436145425232808</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1158601945.200272</v>
+        <v>1411565112.70852</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1249104711005859</v>
+        <v>0.153174750188532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05039308983394921</v>
+        <v>0.03945089914005858</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3573161082.715459</v>
+        <v>3270799821.411688</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09819013686748795</v>
+        <v>0.124312672719589</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02611644235507945</v>
+        <v>0.02470978162735434</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>79</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1434018266.620961</v>
+        <v>1309147369.629251</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09678668545060416</v>
+        <v>0.0977813673196208</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02600083613928515</v>
+        <v>0.02025954696271155</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1248498431.07141</v>
+        <v>936504869.7178757</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08207783669216723</v>
+        <v>0.1077786446097069</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03578348999709104</v>
+        <v>0.03640856075459264</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2853911322.484876</v>
+        <v>4104198260.562293</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1492792100617314</v>
+        <v>0.1379583281917025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01757352681534664</v>
+        <v>0.02051193142835871</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>79</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3087373696.331055</v>
+        <v>3005693050.022891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09730305332467916</v>
+        <v>0.1117914650961868</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04847963699583482</v>
+        <v>0.03860274246332337</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>78</v>
+      </c>
+      <c r="K28" t="n">
+        <v>115.0837548681263</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4893527284.285681</v>
+        <v>5878925041.335424</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1004282523306759</v>
+        <v>0.1206424579540348</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03599317761086554</v>
+        <v>0.02841639791008143</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>73</v>
+      </c>
+      <c r="J29" t="n">
+        <v>79</v>
+      </c>
+      <c r="K29" t="n">
+        <v>209.6040227347728</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1590681442.288275</v>
+        <v>1761100420.066363</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09631036809354031</v>
+        <v>0.09117523317613051</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02611963753788851</v>
+        <v>0.02731584199150087</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1158228045.313512</v>
+        <v>978218304.1518313</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09532537619204667</v>
+        <v>0.07886472049327505</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0467393705079034</v>
+        <v>0.03501787969128808</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1834497075.884566</v>
+        <v>1866408416.43725</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120374201157929</v>
+        <v>0.1073848849961252</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02812559114094836</v>
+        <v>0.03072261013394447</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2795981500.973396</v>
+        <v>2054256900.700031</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1822152654293358</v>
+        <v>0.1530290032911881</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03811023897656918</v>
+        <v>0.04849106548513165</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1234691584.568253</v>
+        <v>1247243493.009894</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1184224001703916</v>
+        <v>0.1009953877497632</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01984549515772423</v>
+        <v>0.02176227794528531</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>919621067.8140559</v>
+        <v>1318586805.809053</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1092980281633948</v>
+        <v>0.10211483086883</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03479154162029272</v>
+        <v>0.04349505423147351</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3050169862.810856</v>
+        <v>2885708392.207635</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1312316284726364</v>
+        <v>0.1176825674041617</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02098371211465404</v>
+        <v>0.01821887234118637</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2687208725.127342</v>
+        <v>2031755398.435758</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06808139494218633</v>
+        <v>0.07624188372458471</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03737412530881453</v>
+        <v>0.03897031556529028</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1685878319.361519</v>
+        <v>1914391069.522064</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1187295905113947</v>
+        <v>0.1052144547614823</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02531473105259276</v>
+        <v>0.02702530168983251</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1711440911.060876</v>
+        <v>1557758359.20345</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1559441503292974</v>
+        <v>0.1657728436651317</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02832503995925408</v>
+        <v>0.03198404906336032</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1389919927.494277</v>
+        <v>1229670185.562575</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1398032005843277</v>
+        <v>0.1202505287263396</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03915639476751256</v>
+        <v>0.04056862456074135</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2170029394.182347</v>
+        <v>2698136766.147007</v>
       </c>
       <c r="F41" t="n">
-        <v>0.104432580440585</v>
+        <v>0.1506618240612045</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04195044717369931</v>
+        <v>0.04374897850257454</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3737813514.673876</v>
+        <v>2988524131.62851</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1059421461695269</v>
+        <v>0.1171045196474843</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03441135923802052</v>
+        <v>0.03720035451163663</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>77</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2908518501.669742</v>
+        <v>2180719220.283266</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13976152195918</v>
+        <v>0.2035548699340496</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02124332757177839</v>
+        <v>0.0252726417765028</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1942285482.592248</v>
+        <v>1489803743.131174</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08386543751586387</v>
+        <v>0.0873075085191256</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02859524960401948</v>
+        <v>0.02657940802460006</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1800632784.468719</v>
+        <v>1820484001.1594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1519480156558458</v>
+        <v>0.186538461566404</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03498181606841887</v>
+        <v>0.05190187954953081</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5102560821.241166</v>
+        <v>3537236554.814943</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1532770939328826</v>
+        <v>0.148371486670446</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05723866012898809</v>
+        <v>0.05152008358520473</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>46</v>
+      </c>
+      <c r="J46" t="n">
+        <v>78</v>
+      </c>
+      <c r="K46" t="n">
+        <v>153.1113976771392</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4151578810.795019</v>
+        <v>3212772063.013073</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1982815495384656</v>
+        <v>0.1322955972909144</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0468289783624594</v>
+        <v>0.04212623311759697</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>35</v>
+      </c>
+      <c r="J47" t="n">
+        <v>79</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3022929940.168417</v>
+        <v>2870358327.981832</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08522000170877155</v>
+        <v>0.09643348595237533</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03312180702245554</v>
+        <v>0.03408506181679859</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>29</v>
+      </c>
+      <c r="J48" t="n">
+        <v>77</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1774664908.524992</v>
+        <v>1326270258.053433</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1401652868728476</v>
+        <v>0.1883242261485156</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04284301151043388</v>
+        <v>0.0386895833069965</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3299878947.369439</v>
+        <v>3869771495.376734</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1339551399848131</v>
+        <v>0.1556642406230574</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05001870729280734</v>
+        <v>0.04131144032342315</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>79</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1049220553.91587</v>
+        <v>1443448244.683992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1638331792580353</v>
+        <v>0.1838969978724108</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05394242895008027</v>
+        <v>0.03333442584003291</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3895250787.106676</v>
+        <v>4584026435.149311</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0974859277814725</v>
+        <v>0.1366877182526826</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0407640079156731</v>
+        <v>0.03817744080520122</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>61</v>
+      </c>
+      <c r="J52" t="n">
+        <v>79</v>
+      </c>
+      <c r="K52" t="n">
+        <v>187.8352776993996</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2393296258.009686</v>
+        <v>2938486872.432898</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1696737764709801</v>
+        <v>0.1776188136578511</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03558953545807526</v>
+        <v>0.02655729327845699</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3774934202.578844</v>
+        <v>4953010957.93386</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1164089029632628</v>
+        <v>0.1493560101778787</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04590073712341521</v>
+        <v>0.03227081168071481</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>36</v>
+      </c>
+      <c r="J54" t="n">
+        <v>78</v>
+      </c>
+      <c r="K54" t="n">
+        <v>177.2914335373796</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4587810704.664742</v>
+        <v>3112144520.280276</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1503542909101235</v>
+        <v>0.1999006976596655</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02232335270421158</v>
+        <v>0.02115162788274344</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>36</v>
+      </c>
+      <c r="J55" t="n">
+        <v>77</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1564950632.990927</v>
+        <v>1848210457.192945</v>
       </c>
       <c r="F56" t="n">
-        <v>0.132330185163842</v>
+        <v>0.1360712049544417</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04292456314936857</v>
+        <v>0.05726119544270225</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4103467360.040862</v>
+        <v>3504615702.201787</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1174938384662684</v>
+        <v>0.1770214795607324</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01981295086616913</v>
+        <v>0.02659775463634881</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29</v>
+      </c>
+      <c r="J57" t="n">
+        <v>78</v>
+      </c>
+      <c r="K57" t="n">
+        <v>146.3564054290833</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1217354191.780883</v>
+        <v>1311920089.481397</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1938427567100336</v>
+        <v>0.1520436319033581</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03049550486703994</v>
+        <v>0.03807721861398505</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5289866741.841043</v>
+        <v>4675956770.947675</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09032161576113344</v>
+        <v>0.1091633951995803</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03860230811002376</v>
+        <v>0.0497769351275073</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>38</v>
+      </c>
+      <c r="J59" t="n">
+        <v>79</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3552891547.452807</v>
+        <v>2545879915.949648</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1435105727826423</v>
+        <v>0.1516797457827148</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0254377565174587</v>
+        <v>0.03015234877555795</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2890637757.763421</v>
+        <v>3231301477.470796</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1752067588910351</v>
+        <v>0.1097459082078957</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02028144300201573</v>
+        <v>0.0270686213742153</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1614939795.913466</v>
+        <v>1898345948.438426</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1509291184062511</v>
+        <v>0.1276779156033952</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03011245215380097</v>
+        <v>0.0310732825431555</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4122228109.386533</v>
+        <v>4117890122.602947</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07195480882589207</v>
+        <v>0.07035555113180285</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03051059228418791</v>
+        <v>0.0318670872460013</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>39</v>
+      </c>
+      <c r="J63" t="n">
+        <v>78</v>
+      </c>
+      <c r="K63" t="n">
+        <v>166.6768120069747</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5106220986.386503</v>
+        <v>3918086764.724763</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1210615637556765</v>
+        <v>0.1694839952644976</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02471618233060181</v>
+        <v>0.03464587391401821</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>39</v>
+      </c>
+      <c r="J64" t="n">
+        <v>78</v>
+      </c>
+      <c r="K64" t="n">
+        <v>170.5580271008345</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5680921206.295308</v>
+        <v>4545651176.556805</v>
       </c>
       <c r="F65" t="n">
-        <v>0.143093372768605</v>
+        <v>0.1710920126356529</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0301380808701866</v>
+        <v>0.02210728075428217</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+      <c r="J65" t="n">
+        <v>79</v>
+      </c>
+      <c r="K65" t="n">
+        <v>181.9070806523719</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5180786459.799029</v>
+        <v>5025290897.531797</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1078462483097702</v>
+        <v>0.1390352220367155</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03984125952924288</v>
+        <v>0.03429133722338348</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>39</v>
+      </c>
+      <c r="J66" t="n">
+        <v>78</v>
+      </c>
+      <c r="K66" t="n">
+        <v>170.9106263081906</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2861203807.520786</v>
+        <v>2343407768.220121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06927398593603866</v>
+        <v>0.0854640815790903</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04830301710930049</v>
+        <v>0.04248935235566934</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5020854289.206693</v>
+        <v>5704112869.069376</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1282833741398421</v>
+        <v>0.1259111350640887</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04235879825016103</v>
+        <v>0.05115153090601062</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>39</v>
+      </c>
+      <c r="J68" t="n">
+        <v>79</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2272102874.717769</v>
+        <v>1787501801.508505</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1338031899904552</v>
+        <v>0.1710481178486706</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05517727841499154</v>
+        <v>0.05028995898831632</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2371244163.515525</v>
+        <v>3530228750.780587</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08412095177036945</v>
+        <v>0.07763062735744278</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04094055939590988</v>
+        <v>0.0377851910444239</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>78</v>
+      </c>
+      <c r="K70" t="n">
+        <v>143.6053849101736</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5069741013.773411</v>
+        <v>3458701994.608392</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1579854710504828</v>
+        <v>0.122323689762119</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03314414241761655</v>
+        <v>0.02418082772348108</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>66</v>
+      </c>
+      <c r="J71" t="n">
+        <v>78</v>
+      </c>
+      <c r="K71" t="n">
+        <v>152.2580134924732</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1656323329.543107</v>
+        <v>2003955604.083019</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07320871123380204</v>
+        <v>0.08229779352907426</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0367551106362433</v>
+        <v>0.03443065885786839</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2576326957.199794</v>
+        <v>2987845266.815746</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091959789757101</v>
+        <v>0.08630432922844736</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05102630044527312</v>
+        <v>0.04825230209362228</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3072919656.042213</v>
+        <v>3572127449.797823</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1222264695343487</v>
+        <v>0.1378083679958588</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02398944347113583</v>
+        <v>0.0319591986197667</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>79</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2176674977.182805</v>
+        <v>1671349199.367866</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1374144294574118</v>
+        <v>0.1414881097155278</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0270570218105959</v>
+        <v>0.02640673079319474</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3639866319.323354</v>
+        <v>4774945419.605615</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1013445015398753</v>
+        <v>0.1049978161535658</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02662012165657608</v>
+        <v>0.02635068547849412</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>36</v>
+      </c>
+      <c r="J76" t="n">
+        <v>79</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1836548225.85468</v>
+        <v>1741974833.629972</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1133178731472967</v>
+        <v>0.1477544581659657</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03165437986669589</v>
+        <v>0.02609854584222229</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4180774787.711661</v>
+        <v>2960432493.030645</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1142558897104704</v>
+        <v>0.1264940262240359</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03748811653541066</v>
+        <v>0.04150895155069867</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>38</v>
+      </c>
+      <c r="J78" t="n">
+        <v>77</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1853157738.254213</v>
+        <v>1607129102.500536</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1179043535609065</v>
+        <v>0.1431162715440965</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02508615335213574</v>
+        <v>0.03341361540262507</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3705039204.052663</v>
+        <v>3628895015.728193</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07601164027744868</v>
+        <v>0.06844993984533476</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03236827820501383</v>
+        <v>0.03303445718843161</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>38</v>
+      </c>
+      <c r="J80" t="n">
+        <v>78</v>
+      </c>
+      <c r="K80" t="n">
+        <v>126.9367161249221</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3174154443.335542</v>
+        <v>5054203556.268771</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1246485845714392</v>
+        <v>0.1019926514373908</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02768373822623789</v>
+        <v>0.02908708931848429</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>35</v>
+      </c>
+      <c r="J81" t="n">
+        <v>79</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4374575449.548407</v>
+        <v>5151061990.711809</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2027768745601379</v>
+        <v>0.1980956860033759</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01946810978363882</v>
+        <v>0.01850027214304675</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>49</v>
+      </c>
+      <c r="J82" t="n">
+        <v>79</v>
+      </c>
+      <c r="K82" t="n">
+        <v>187.9441138093371</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1920055028.166513</v>
+        <v>2244250832.504615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09532154388593357</v>
+        <v>0.1186661597048261</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03096909260316158</v>
+        <v>0.0396681248458555</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1956579250.343742</v>
+        <v>1767137805.680335</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1198423815153098</v>
+        <v>0.09786753692262788</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04923312440125877</v>
+        <v>0.04845685663359187</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3302549714.894655</v>
+        <v>2786767281.629247</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1387295994420695</v>
+        <v>0.1692924158441546</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04310126275104862</v>
+        <v>0.05369922412454439</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2211185807.173006</v>
+        <v>2729778235.243911</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1170392000776846</v>
+        <v>0.1697610599016117</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02258516521134015</v>
+        <v>0.01915822984402123</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1195285826.372596</v>
+        <v>1087730858.680893</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1538984403478054</v>
+        <v>0.1405868408535514</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03433517028354759</v>
+        <v>0.04312696041558833</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3522728228.493164</v>
+        <v>2571645381.614508</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1761045038650854</v>
+        <v>0.1653784010815351</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03953175224221302</v>
+        <v>0.03086682827781596</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2160424127.703148</v>
+        <v>3250503659.312328</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1148081291106883</v>
+        <v>0.1391128743027416</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03929264943384138</v>
+        <v>0.03456227691120972</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1732857363.308109</v>
+        <v>2148936607.074512</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1293883850260536</v>
+        <v>0.1050247901628935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.044402425459</v>
+        <v>0.04137065521124771</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2031386386.663965</v>
+        <v>1765717807.330939</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1615790525085059</v>
+        <v>0.1602120812582099</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03989051857052823</v>
+        <v>0.04172611176305713</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2179728351.278243</v>
+        <v>2506423374.024537</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06986258295837604</v>
+        <v>0.08009455091656816</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04572756820024335</v>
+        <v>0.03405755469938276</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4484420468.968056</v>
+        <v>4956028882.923573</v>
       </c>
       <c r="F93" t="n">
-        <v>0.113371930428853</v>
+        <v>0.1164017904443911</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03962280059652126</v>
+        <v>0.04846848956831568</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>36</v>
+      </c>
+      <c r="J93" t="n">
+        <v>78</v>
+      </c>
+      <c r="K93" t="n">
+        <v>164.9273933901004</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2038674593.879852</v>
+        <v>1645341260.050629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1390227955027847</v>
+        <v>0.1291923812298233</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0314098280664452</v>
+        <v>0.03341194517800737</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2757439604.813295</v>
+        <v>2235507972.090315</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08427834356399631</v>
+        <v>0.09373179904041549</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04159766642665483</v>
+        <v>0.04635196751393977</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2116700121.852173</v>
+        <v>2265713922.406947</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0947604435568429</v>
+        <v>0.1262869209104706</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04083172281441404</v>
+        <v>0.03702989572605143</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5248044731.101466</v>
+        <v>3462556494.849027</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1297745070068562</v>
+        <v>0.1131700209455301</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01890019385801599</v>
+        <v>0.02326121575172214</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>38</v>
+      </c>
+      <c r="J97" t="n">
+        <v>78</v>
+      </c>
+      <c r="K97" t="n">
+        <v>144.1028114781929</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2920950271.61369</v>
+        <v>2816363497.298574</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1090227707483489</v>
+        <v>0.09510843788728116</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02975252063307194</v>
+        <v>0.0212819702055174</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>77</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2760698167.867778</v>
+        <v>2142246764.826002</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09947115204154346</v>
+        <v>0.1008047850131618</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02152467248496015</v>
+        <v>0.03528152698322732</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4289051513.884157</v>
+        <v>3611294472.357726</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1583279123525461</v>
+        <v>0.1414339166237463</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01732308478419291</v>
+        <v>0.01840022906090055</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>33</v>
+      </c>
+      <c r="J100" t="n">
+        <v>78</v>
+      </c>
+      <c r="K100" t="n">
+        <v>151.436482000731</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2217051421.213785</v>
+        <v>2405433526.550759</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1882401498360212</v>
+        <v>0.1353616076073756</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04454323064748197</v>
+        <v>0.05080348698494148</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
